--- a/scheme/ts-115-conformity-assessement-workbook.xlsx
+++ b/scheme/ts-115-conformity-assessement-workbook.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="1-3 Overview" sheetId="1" state="visible" r:id="rId2"/>
@@ -52,6 +52,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">DGSI TS/115:2023 </t>
     </r>
@@ -60,6 +61,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">was prepared by the Digital Governance Standards Institute Technical Committee on digital credentials. The specification was approved by an expert committee and is intended to support a prototype conformity assessment program for digital credentials and digital trust services.</t>
     </r>
@@ -440,13 +442,13 @@
     <t xml:space="preserve">9.1.1</t>
   </si>
   <si>
-    <t xml:space="preserve">he Issuer Component shall identify the Issuer of the digital credential.</t>
+    <t xml:space="preserve">The Issuer Component shall identify the Issuer of the digital credential.</t>
   </si>
   <si>
     <t xml:space="preserve">9.1.2</t>
   </si>
   <si>
-    <t xml:space="preserve">he Issuer Component shall be able to create a decentralized identifier for the Issuer, in 
+    <t xml:space="preserve">The Issuer Component shall be able to create a decentralized identifier for the Issuer, in 
 accordance with Section 8.</t>
   </si>
   <si>
@@ -465,7 +467,7 @@
     <t xml:space="preserve">9.1.4</t>
   </si>
   <si>
-    <t xml:space="preserve">he Issuer Component shall protect the digital credential, source data for the digital credential 
+    <t xml:space="preserve">The Issuer Component shall protect the digital credential, source data for the digital credential 
 and all other sensitive data, including personally identifiable information (PII) and personal 
 information (PI), in accordance with Section 6 of this Specification.</t>
   </si>
@@ -490,7 +492,7 @@
     <t xml:space="preserve">9.1.7</t>
   </si>
   <si>
-    <t xml:space="preserve">he Issuer Component shall be designed to create and update claims with respect to the 
+    <t xml:space="preserve">The Issuer Component shall be designed to create and update claims with respect to the 
 Subject(s) resulting from identity linking, identity verification, identity evidence determination, 
 and identity continuity processes of the Issuer in accordance with CAN/CIOSC 103-1.</t>
   </si>
@@ -889,14 +891,14 @@
     <t xml:space="preserve">11.1.1</t>
   </si>
   <si>
-    <t xml:space="preserve">he Verifier Component shall process digital credentials, in accordance with the general 
+    <t xml:space="preserve">The Verifier Component shall process digital credentials, in accordance with the general 
 characteristics specified in Subsection 5.1 of this Specification. </t>
   </si>
   <si>
     <t xml:space="preserve">11.1.2</t>
   </si>
   <si>
-    <t xml:space="preserve">he Verifier Component shall ensure all digital credential data and all other sensitive data, 
+    <t xml:space="preserve">The Verifier Component shall ensure all digital credential data and all other sensitive data, 
 including personally identifiable information (PII) and personal information (PI), are protected 
 in accordance with Section 6 of this Specification.</t>
   </si>
@@ -904,14 +906,14 @@
     <t xml:space="preserve">11.1.3</t>
   </si>
   <si>
-    <t xml:space="preserve">he Verifier Component shall conform to the Harmonized European Standard on Accessibility 
+    <t xml:space="preserve">The Verifier Component shall conform to the Harmonized European Standard on Accessibility 
 requirements for ICT products and services (EN 301-549).</t>
   </si>
   <si>
     <t xml:space="preserve">11.1.4</t>
   </si>
   <si>
-    <t xml:space="preserve">he Verifier Component shall provide support for official languages of the jurisdiction, and 
+    <t xml:space="preserve">The Verifier Component shall provide support for official languages of the jurisdiction, and 
 should provide support for additional languages (e.g., Indigenous languages).</t>
   </si>
   <si>
@@ -921,7 +923,7 @@
     <t xml:space="preserve">11.1.5</t>
   </si>
   <si>
-    <t xml:space="preserve">he Verifier Component shall have the capability to request from the Holder Component the 
+    <t xml:space="preserve">The Verifier Component shall have the capability to request from the Holder Component the 
 sharing of digital credential data, in whole, in part, or as a derivation. </t>
   </si>
   <si>
@@ -1041,6 +1043,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1062,18 +1065,21 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1216,11 +1222,11 @@
   </sheetPr>
   <dimension ref="B2:B24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="73.5"/>
@@ -1330,12 +1336,12 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="89.06"/>
@@ -1615,13 +1621,13 @@
   </sheetPr>
   <dimension ref="A1:E141"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B140" activeCellId="0" sqref="B140"/>
+      <selection pane="bottomLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="78.64"/>
@@ -2752,7 +2758,7 @@
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="81.83"/>
   </cols>

--- a/scheme/ts-115-conformity-assessement-workbook.xlsx
+++ b/scheme/ts-115-conformity-assessement-workbook.xlsx
@@ -12,6 +12,7 @@
     <sheet name="4 Objects of Conformity" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="5-12 Digital Credentials" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Annex A-B" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Config" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="297">
   <si>
     <t xml:space="preserve">Conformity Assessement Workbook for: DGSI TS/115:2023</t>
   </si>
@@ -94,6 +95,9 @@
     <t xml:space="preserve">Specification / Requirements</t>
   </si>
   <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
     <t xml:space="preserve">Additional Guidance</t>
   </si>
   <si>
@@ -119,16 +123,25 @@
 communicating the fulfilment of conformity assessment requirements. </t>
   </si>
   <si>
+    <t xml:space="preserve">Shall</t>
+  </si>
+  <si>
     <t xml:space="preserve">NOTE: In some instances, specific requirements may not be applicable to the object of conformity. 
 A statement of conformity may be issued with clear rationale provided as to why specific 
 requirements are not applicable. </t>
   </si>
   <si>
+    <t xml:space="preserve">Note</t>
+  </si>
+  <si>
     <t xml:space="preserve">4.1.2</t>
   </si>
   <si>
     <t xml:space="preserve">Implementation may be part of larger integrations and shall provide one or more of the following 
 service(s) and are considered in scope: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">May</t>
   </si>
   <si>
     <t xml:space="preserve">a)</t>
@@ -181,6 +194,9 @@
   </si>
   <si>
     <t xml:space="preserve">Data model, data interchange and data formats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N/A</t>
   </si>
   <si>
     <t xml:space="preserve">4.3.1</t>
@@ -263,6 +279,9 @@
 Case and executed in accordance with ISO/IEC/IEEE 29119-4. </t>
   </si>
   <si>
+    <t xml:space="preserve">Shall/Shoud</t>
+  </si>
+  <si>
     <t xml:space="preserve">5.1.</t>
   </si>
   <si>
@@ -322,6 +341,9 @@
   </si>
   <si>
     <t xml:space="preserve">Digital credentials should:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should</t>
   </si>
   <si>
     <t xml:space="preserve">be suspendible; </t>
@@ -1029,6 +1051,15 @@
   </si>
   <si>
     <t xml:space="preserve">Please refer to Annex A and B in TS-115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
   </si>
 </sst>
 </file>
@@ -1062,6 +1093,13 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1070,13 +1108,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1105,7 +1136,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1129,8 +1160,26 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1139,8 +1188,20 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1148,34 +1209,22 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1183,12 +1232,24 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1203,14 +1264,24 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="12">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Pivot Table Field" xfId="20"/>
+    <cellStyle name="Pivot Table Corner" xfId="21"/>
+    <cellStyle name="Pivot Table Value" xfId="22"/>
+    <cellStyle name="Pivot Table Category" xfId="23"/>
+    <cellStyle name="Pivot Table Title" xfId="24"/>
+    <cellStyle name="Pivot Table Result" xfId="25"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -1226,10 +1297,10 @@
       <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="73.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="87.67"/>
   </cols>
   <sheetData>
     <row r="2" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1333,20 +1404,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
+      <selection pane="bottomLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="89.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="60.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="60.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25.7"/>
   </cols>
   <sheetData>
     <row r="1" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1365,66 +1437,90 @@
       <c r="E1" s="9" t="s">
         <v>19</v>
       </c>
+      <c r="F1" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="12" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1432,39 +1528,51 @@
         <v>4.2</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>41</v>
+        <v>45</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1472,15 +1580,21 @@
         <v>4.3</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="17" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1488,103 +1602,142 @@
         <v>4.4</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>38</v>
+        <v>42</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>46</v>
+        <v>51</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>48</v>
+        <v>53</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>49</v>
+        <v>31</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>50</v>
+        <v>33</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>51</v>
+        <v>35</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>52</v>
+        <v>37</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>54</v>
+        <v>58</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>56</v>
+        <v>60</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>60</v>
+        <v>64</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>62</v>
+        <v>67</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>64</v>
+        <v>69</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="30" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1592,18 +1745,25 @@
         <v>4.5</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>66</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="C31" s="12"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C3:C9 C11:C29" type="list">
+      <formula1>Config!$C$4:$C$8</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1619,20 +1779,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E141"/>
+  <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+      <selection pane="bottomLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="78.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="56.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="13" width="12.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="56.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="45.02"/>
   </cols>
   <sheetData>
     <row r="1" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1642,8 +1803,8 @@
       <c r="B1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>17</v>
+      <c r="C1" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>18</v>
@@ -1651,1092 +1812,1518 @@
       <c r="E1" s="9" t="s">
         <v>19</v>
       </c>
+      <c r="F1" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>68</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="17"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="n">
         <v>5.1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="23" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="15" t="n">
+      <c r="B23" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="17"/>
+    </row>
+    <row r="24" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="18" t="n">
         <v>6</v>
       </c>
-      <c r="B24" s="16" t="s">
-        <v>69</v>
+      <c r="B24" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>98</v>
+        <v>105</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>103</v>
+        <v>110</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="29" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="B29" s="14" t="s">
-        <v>104</v>
-      </c>
+      <c r="B29" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="17"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="n">
         <v>7.1</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>108</v>
+        <v>115</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>110</v>
+        <v>117</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>112</v>
+        <v>119</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>114</v>
+        <v>121</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="36" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="B36" s="14" t="s">
-        <v>115</v>
-      </c>
+      <c r="B36" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="17"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="7" t="n">
         <v>8.1</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>117</v>
+        <v>124</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="39" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="B39" s="14" t="s">
-        <v>118</v>
-      </c>
+      <c r="B39" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C39" s="17"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="n">
         <v>9.1</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="7" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="7" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>127</v>
+        <v>134</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="7" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>129</v>
+        <v>136</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="7" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>131</v>
+        <v>138</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="1" t="s">
-        <v>132</v>
+        <v>139</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="7" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>134</v>
+        <v>141</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="7" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>136</v>
+        <v>143</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="7" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>138</v>
+        <v>145</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="1" t="s">
-        <v>139</v>
+        <v>146</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="7" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>141</v>
+        <v>148</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="7" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="7" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>145</v>
+        <v>152</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>147</v>
+        <v>154</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="7" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>149</v>
+        <v>156</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="7" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>151</v>
+        <v>158</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="7" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>153</v>
+        <v>160</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="7" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>155</v>
+        <v>162</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>157</v>
+        <v>164</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="7" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="1" t="s">
-        <v>160</v>
+        <v>167</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="7" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="7" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>166</v>
+        <v>173</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>168</v>
+        <v>175</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>169</v>
+        <v>176</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>170</v>
+        <v>177</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>171</v>
+        <v>178</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>173</v>
+        <v>180</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>175</v>
+        <v>182</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>177</v>
+        <v>184</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>179</v>
+        <v>186</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>181</v>
+        <v>188</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>182</v>
+        <v>189</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>183</v>
+        <v>190</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>184</v>
+        <v>191</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>186</v>
+        <v>193</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>188</v>
+        <v>195</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>189</v>
+        <v>196</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>190</v>
+        <v>197</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="83" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="B83" s="14" t="s">
-        <v>191</v>
-      </c>
+      <c r="B83" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="C83" s="17"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="7" t="n">
         <v>10.1</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>193</v>
+        <v>200</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>195</v>
+        <v>202</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>197</v>
+        <v>204</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="7" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>199</v>
+        <v>206</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="1" t="s">
-        <v>132</v>
+        <v>139</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>201</v>
+        <v>208</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>203</v>
+        <v>210</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="1" t="s">
-        <v>204</v>
+        <v>211</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>206</v>
+        <v>213</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>207</v>
+        <v>214</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>208</v>
+        <v>215</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>209</v>
+        <v>216</v>
+      </c>
+      <c r="C96" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>210</v>
+        <v>217</v>
+      </c>
+      <c r="C97" s="13" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>212</v>
+        <v>219</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="7" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>214</v>
+        <v>221</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>216</v>
+        <v>223</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>218</v>
+        <v>225</v>
+      </c>
+      <c r="C101" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>219</v>
+        <v>226</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>220</v>
+        <v>227</v>
+      </c>
+      <c r="C103" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="7" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>222</v>
+        <v>229</v>
+      </c>
+      <c r="C104" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="7" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>224</v>
+        <v>231</v>
+      </c>
+      <c r="C105" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="1" t="s">
-        <v>225</v>
+        <v>232</v>
+      </c>
+      <c r="C106" s="13" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="7" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>227</v>
+        <v>234</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="1" t="s">
-        <v>228</v>
+        <v>235</v>
+      </c>
+      <c r="C108" s="13" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>230</v>
+        <v>237</v>
+      </c>
+      <c r="C109" s="13" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>232</v>
+        <v>239</v>
+      </c>
+      <c r="C110" s="13" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>234</v>
+        <v>241</v>
+      </c>
+      <c r="C111" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>236</v>
+        <v>243</v>
+      </c>
+      <c r="C112" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>238</v>
+        <v>245</v>
+      </c>
+      <c r="C113" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>240</v>
+        <v>247</v>
+      </c>
+      <c r="C114" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>242</v>
+        <v>249</v>
+      </c>
+      <c r="C115" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="7" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>244</v>
+        <v>251</v>
+      </c>
+      <c r="C116" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="7" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>246</v>
+        <v>253</v>
+      </c>
+      <c r="C117" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="118" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="10" t="n">
         <v>11</v>
       </c>
-      <c r="B118" s="14" t="s">
-        <v>32</v>
-      </c>
+      <c r="B118" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C118" s="17"/>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="7" t="n">
         <v>11.1</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>247</v>
+        <v>254</v>
+      </c>
+      <c r="C119" s="13" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="7" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>249</v>
+        <v>256</v>
+      </c>
+      <c r="C120" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>251</v>
+        <v>258</v>
+      </c>
+      <c r="C121" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>253</v>
+        <v>260</v>
+      </c>
+      <c r="C122" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="7" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>255</v>
+        <v>262</v>
+      </c>
+      <c r="C123" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="1" t="s">
-        <v>256</v>
+        <v>263</v>
+      </c>
+      <c r="C124" s="13" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>258</v>
+        <v>265</v>
+      </c>
+      <c r="C125" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="1" t="s">
-        <v>259</v>
+        <v>266</v>
+      </c>
+      <c r="C126" s="13" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>261</v>
+        <v>268</v>
+      </c>
+      <c r="C127" s="13" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>263</v>
+        <v>270</v>
+      </c>
+      <c r="C128" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="1" t="s">
-        <v>264</v>
+        <v>271</v>
+      </c>
+      <c r="C129" s="13" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>266</v>
+        <v>273</v>
+      </c>
+      <c r="C130" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>268</v>
+        <v>275</v>
+      </c>
+      <c r="C131" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>270</v>
+        <v>277</v>
+      </c>
+      <c r="C132" s="13" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>272</v>
+        <v>279</v>
+      </c>
+      <c r="C133" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>274</v>
+        <v>281</v>
+      </c>
+      <c r="C134" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>276</v>
+        <v>283</v>
+      </c>
+      <c r="C135" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="136" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="10" t="n">
         <v>12</v>
       </c>
-      <c r="B136" s="14" t="s">
-        <v>277</v>
-      </c>
+      <c r="B136" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="C136" s="17"/>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="7" t="n">
         <v>12.1</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
+      </c>
+      <c r="C137" s="13" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>279</v>
+        <v>286</v>
+      </c>
+      <c r="C138" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>281</v>
+        <v>288</v>
+      </c>
+      <c r="C139" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>283</v>
+        <v>290</v>
+      </c>
+      <c r="C140" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>285</v>
+        <v>292</v>
+      </c>
+      <c r="C141" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B143" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="3">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C3:C22" type="list">
+      <formula1>Config!$C$4:$C$8</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C24:C28" type="list">
+      <formula1>Config!$C$4:$C$8</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C30:C35 C37:C38 C40:C82 C84:C117 C119:C135 C137:C141" type="list">
+      <formula1>Config!$C$4:$C$8</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2758,14 +3345,14 @@
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="81.83"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -2777,4 +3364,71 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B3:C8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="21" width="21.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.01"/>
+  </cols>
+  <sheetData>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>